--- a/medicine/Enfance/Marie_Bertherat/Marie_Bertherat.xlsx
+++ b/medicine/Enfance/Marie_Bertherat/Marie_Bertherat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie Bertherat, née en 1963 à Savigny-sur-Orge, est une romancière française, qui écrit principalement pour la littérature jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est la fille de Thérèse Bertherat. Diplômée de Sciences Po-Paris, Marie Bertherat a commencé une carrière de journaliste (rédactrice en chef adjointe de Médias Magazine), puis de pigiste (Okapi, Télérama Junior, Science &amp; Vie Junior, Décisions Environnement, Grand Air, Terre Sauvage...), avant de se consacrer entièrement à son travail d’écrivain.
 Elle écrit des documentaires, des albums et surtout des contes modernes et des romans. Ses romans mettent souvent en scène des personnages Russes émigrés en France, pris dans les turbulences de la Révolution russe ou de la Guerre froide. Elle est l'auteure en 2003 de la série des Enquêtes du Samovar (éditions Mango, collection Chambre Noire) et son trio de détectives, Lou Kerval, Stanislas O’Connor et Constantin Pitakof.
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Fictions jeunesse
 La nuit du saphir, 2011, éditions Éveil et Découvertes
@@ -553,7 +569,7 @@
 Moi Iris, ma vie, mes pieds, 2009, éditions Éveil et Découvertes
 Moi Colombe, ma vie, mon sac, 2010, éditions Éveil et Découvertes
 N, Princesse rebelle, 2007, éditions du Seuil Jeunesse
-La Fille au pinceau d'or, 2005, éditions Bayard Jeunesse (Prix des dévoreurs de livres[1] 2007)
+La Fille au pinceau d'or, 2005, éditions Bayard Jeunesse (Prix des dévoreurs de livres 2007)
 La Nuit du loup, Zeste, 2006, éditions Fleurus
 Cléopâtre, Zeste, 2006, éditions Fleurus
 Dans la série des Enquêtes du Samovar
